--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -681,76 +681,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -2193,301 +2193,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>222</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>223</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>224</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>225</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>227</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>228</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>230</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>231</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>232</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>233</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>234</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>235</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>236</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>237</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>238</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>239</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>240</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>241</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>242</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>243</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>244</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>245</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>223</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2610,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="261">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -2442,7 +2445,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -2487,7 +2490,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2550,13 +2553,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -2568,13 +2571,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="EB2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="EC2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -2583,13 +2586,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="EG2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="EH2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -2622,19 +2625,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="ET2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="EU2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -2665,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="269">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -180,7 +180,7 @@
     <t>suckleyi</t>
   </si>
   <si>
-    <t>Reported as Squalus acanthias in CMN catalogue; Squalus suckleyi recognized in the Pacific</t>
+    <t>Reported as Squalus acanthias (CMNFI 1985-0086.5) in CMN records; Squalus suckleyi replaces Squalus acanthias in the NEP.</t>
   </si>
   <si>
     <t>84182</t>
@@ -330,6 +330,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -702,7 +711,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -717,6 +726,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -726,6 +744,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -760,6 +781,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1703,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2178,19 +2202,28 @@
       <c r="FA1" t="s">
         <v>218</v>
       </c>
+      <c r="FB1" t="s">
+        <v>219</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>220</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2202,16 +2235,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -2226,429 +2259,438 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>226</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>254</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>255</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>256</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>257</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>258</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>262</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>230</v>
       </c>
-      <c r="AO2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>243</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>244</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>246</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>247</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>249</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>250</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>251</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>252</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>253</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>254</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="EW2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2668,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="262">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -330,15 +330,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -681,9 +672,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -726,15 +714,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -744,7 +723,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -1727,970 +1706,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AL1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AM1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AO1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AQ1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AR1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AS1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AT1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AU1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AW1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AX1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AY1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AZ1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BA1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BB1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BC1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BD1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BE1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BF1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BG1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BH1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BI1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BJ1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BK1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BL1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BM1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BN1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BO1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BP1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BQ1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BR1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BS1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BT1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BU1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BV1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BW1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BX1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BY1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BZ1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CA1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CB1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CC1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CD1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CE1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CF1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CG1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CH1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CI1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CJ1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CK1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CL1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CM1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CN1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CO1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CP1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CQ1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CR1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CS1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CT1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CU1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CV1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CW1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CX1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CY1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CZ1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DA1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DB1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DC1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DD1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DE1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DF1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DG1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DH1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DI1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DJ1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DK1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DL1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DM1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DN1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DO1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DP1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DQ1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DR1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DS1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="DT1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DV1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DW1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DX1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DY1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DZ1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EA1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EB1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EC1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="ED1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="EE1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EF1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EG1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EH1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EI1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EJ1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EK1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EL1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="EM1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="EN1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EO1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="EP1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="EQ1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="ER1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="ES1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="ET1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="EU1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="EV1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EW1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="EX1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EY1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="EZ1" t="s">
-        <v>217</v>
-      </c>
-      <c r="FA1" t="s">
         <v>218</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>219</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>220</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>224</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>225</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>226</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>227</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>229</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>230</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>231</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>232</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>233</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>234</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>235</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>236</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>237</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>238</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>239</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>240</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>241</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>242</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>243</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>244</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>245</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>221</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>246</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>247</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>248</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>249</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>250</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>251</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>252</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>253</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>254</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>255</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>226</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>256</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>257</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>258</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>259</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>261</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>230</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>263</v>
-      </c>
       <c r="EW2" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>266</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2710,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="260">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -336,9 +336,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -718,9 +715,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -1706,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -2175,466 +2169,463 @@
       <c r="EY1" t="s">
         <v>217</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>219</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>220</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>221</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>222</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>223</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>224</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>225</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>226</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>227</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>228</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>229</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>230</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>231</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>232</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>233</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>234</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>235</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>236</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>237</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>238</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>239</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>240</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>241</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>242</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>243</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>244</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>245</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>221</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>246</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>247</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>248</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>249</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>250</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>251</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>252</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>253</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>225</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>254</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>255</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>226</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>256</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>257</v>
       </c>
-      <c r="ET2" t="s">
-        <v>258</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -2643,9 +2634,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2665,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -2850,7 +2850,7 @@
         <v>36</v>
       </c>
       <c r="CO2" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="CP2" t="s">
         <v>36</v>
@@ -3317,7 +3317,7 @@
         <v>36</v>
       </c>
       <c r="CO3" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="CP3" t="s">
         <v>36</v>
@@ -3784,7 +3784,7 @@
         <v>36</v>
       </c>
       <c r="CO4" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="CP4" t="s">
         <v>36</v>
@@ -4251,7 +4251,7 @@
         <v>36</v>
       </c>
       <c r="CO5" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="CP5" t="s">
         <v>36</v>
@@ -4718,7 +4718,7 @@
         <v>36</v>
       </c>
       <c r="CO6" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="CP6" t="s">
         <v>36</v>
@@ -5185,7 +5185,7 @@
         <v>36</v>
       </c>
       <c r="CO7" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="CP7" t="s">
         <v>36</v>
@@ -5652,7 +5652,7 @@
         <v>36</v>
       </c>
       <c r="CO8" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="CP8" t="s">
         <v>36</v>
@@ -6119,7 +6119,7 @@
         <v>36</v>
       </c>
       <c r="CO9" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="CP9" t="s">
         <v>36</v>
@@ -6586,7 +6586,7 @@
         <v>36</v>
       </c>
       <c r="CO10" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="CP10" t="s">
         <v>36</v>
@@ -7053,7 +7053,7 @@
         <v>36</v>
       </c>
       <c r="CO11" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP11" t="s">
         <v>36</v>
@@ -7520,7 +7520,7 @@
         <v>36</v>
       </c>
       <c r="CO12" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP12" t="s">
         <v>36</v>
@@ -7987,7 +7987,7 @@
         <v>36</v>
       </c>
       <c r="CO13" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP13" t="s">
         <v>36</v>
@@ -8454,7 +8454,7 @@
         <v>36</v>
       </c>
       <c r="CO14" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP14" t="s">
         <v>36</v>
@@ -8921,7 +8921,7 @@
         <v>36</v>
       </c>
       <c r="CO15" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="CP15" t="s">
         <v>36</v>
@@ -9388,7 +9388,7 @@
         <v>36</v>
       </c>
       <c r="CO16" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP16" t="s">
         <v>36</v>
@@ -9855,7 +9855,7 @@
         <v>36</v>
       </c>
       <c r="CO17" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP17" t="s">
         <v>36</v>
@@ -10322,7 +10322,7 @@
         <v>36</v>
       </c>
       <c r="CO18" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP18" t="s">
         <v>36</v>
@@ -10789,7 +10789,7 @@
         <v>36</v>
       </c>
       <c r="CO19" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP19" t="s">
         <v>36</v>
@@ -11256,7 +11256,7 @@
         <v>36</v>
       </c>
       <c r="CO20" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP20" t="s">
         <v>36</v>
@@ -11723,7 +11723,7 @@
         <v>36</v>
       </c>
       <c r="CO21" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP21" t="s">
         <v>36</v>
@@ -12190,7 +12190,7 @@
         <v>36</v>
       </c>
       <c r="CO22" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP22" t="s">
         <v>36</v>
@@ -12657,7 +12657,7 @@
         <v>36</v>
       </c>
       <c r="CO23" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP23" t="s">
         <v>36</v>
@@ -13124,7 +13124,7 @@
         <v>36</v>
       </c>
       <c r="CO24" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP24" t="s">
         <v>36</v>
@@ -13591,7 +13591,7 @@
         <v>36</v>
       </c>
       <c r="CO25" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP25" t="s">
         <v>36</v>
@@ -14058,7 +14058,7 @@
         <v>36</v>
       </c>
       <c r="CO26" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="CP26" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -159,7 +159,7 @@
     <t>rhina</t>
   </si>
   <si>
-    <t>Jordan &amp; Gilbert, 1880</t>
+    <t>(Jordan &amp; Gilbert, 1880)</t>
   </si>
   <si>
     <t>201523</t>

--- a/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
+++ b/data/dataPaper-I-in/arphified/Chondrichthyes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="409">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -153,7 +153,7 @@
     <t>(Girard, 1855)</t>
   </si>
   <si>
-    <t>883875</t>
+    <t>1433668</t>
   </si>
   <si>
     <t>rhina</t>
@@ -828,7 +828,7 @@
     <t>Beringraja rhina</t>
   </si>
   <si>
-    <t>iNaturalist:883875</t>
+    <t>iNaturalist:1433668</t>
   </si>
   <si>
     <t>2010-11-12</t>
@@ -1038,6 +1038,75 @@
     <t>3</t>
   </si>
   <si>
+    <t>imerss.org:iNat:79022350</t>
+  </si>
+  <si>
+    <t>48.949428</t>
+  </si>
+  <si>
+    <t>-123.510758</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>10:31:02</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:116332370</t>
+  </si>
+  <si>
+    <t>48.91332</t>
+  </si>
+  <si>
+    <t>-123.327325</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:116332374</t>
+  </si>
+  <si>
+    <t>48.914079</t>
+  </si>
+  <si>
+    <t>-123.328969</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:116332376</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:116332380</t>
+  </si>
+  <si>
+    <t>48.914491</t>
+  </si>
+  <si>
+    <t>-123.32939</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:116447617</t>
+  </si>
+  <si>
+    <t>48.912954</t>
+  </si>
+  <si>
+    <t>-123.327638</t>
+  </si>
+  <si>
+    <t>2008-05-22</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:116497166</t>
+  </si>
+  <si>
     <t>imerss.org:CMN:CMNFI 1985-0086.5</t>
   </si>
   <si>
@@ -1074,18 +1143,12 @@
     <t>PreservedSpecimen</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:18764</t>
+    <t>imerss.org:CHU2010:808</t>
   </si>
   <si>
     <t>Chu JWF, Leys SP (2010) High resolution mapping of community structure in three glass sponge reefs (Porifera, Hexactinellida). Marine Ecology Progress Series 417: 97‑113. https://doi.org/10.7939/r36k3q</t>
   </si>
   <si>
-    <t>48.91332</t>
-  </si>
-  <si>
-    <t>-123.327325</t>
-  </si>
-  <si>
     <t>ROV</t>
   </si>
   <si>
@@ -1095,28 +1158,16 @@
     <t>Chu &amp; Leys (2010)</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:18778</t>
-  </si>
-  <si>
-    <t>48.914079</t>
-  </si>
-  <si>
-    <t>-123.328969</t>
-  </si>
-  <si>
-    <t>imerss.org:CHU2010:18785</t>
-  </si>
-  <si>
-    <t>imerss.org:CHU2010:18786</t>
-  </si>
-  <si>
-    <t>48.914491</t>
-  </si>
-  <si>
-    <t>-123.32939</t>
-  </si>
-  <si>
-    <t>imerss.org:CHU2010:18844</t>
+    <t>imerss.org:CHU2010:809</t>
+  </si>
+  <si>
+    <t>imerss.org:CHU2010:810</t>
+  </si>
+  <si>
+    <t>imerss.org:CHU2010:811</t>
+  </si>
+  <si>
+    <t>imerss.org:CHU2010:812</t>
   </si>
   <si>
     <t>48.9152</t>
@@ -1125,13 +1176,10 @@
     <t>-123.331452</t>
   </si>
   <si>
-    <t>2008-05-22</t>
-  </si>
-  <si>
     <t>Waypoint.or.Transect: 27</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:18856</t>
+    <t>imerss.org:CHU2010:813</t>
   </si>
   <si>
     <t>48.915711</t>
@@ -1143,7 +1191,7 @@
     <t>Waypoint.or.Transect: 28</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:18871</t>
+    <t>imerss.org:CHU2010:814</t>
   </si>
   <si>
     <t>48.914492</t>
@@ -1152,22 +1200,19 @@
     <t>-123.330693</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:18893</t>
-  </si>
-  <si>
-    <t>48.912954</t>
+    <t>imerss.org:CHU2010:815</t>
   </si>
   <si>
     <t>-123.327639</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:19114</t>
+    <t>imerss.org:CHU2010:816</t>
   </si>
   <si>
     <t>Waypoint.or.Transect: 32</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:19153</t>
+    <t>imerss.org:CHU2010:817</t>
   </si>
   <si>
     <t>48.910231</t>
@@ -1179,7 +1224,7 @@
     <t>Waypoint.or.Transect: 368</t>
   </si>
   <si>
-    <t>imerss.org:CHU2010:19196</t>
+    <t>imerss.org:CHU2010:818</t>
   </si>
   <si>
     <t>48.910508</t>
@@ -2102,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EY26"/>
+  <dimension ref="A1:EY33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -8651,7 +8696,7 @@
         <v>341</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -8663,13 +8708,13 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
         <v>36</v>
@@ -8699,7 +8744,7 @@
         <v>36</v>
       </c>
       <c r="S15" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="T15" t="s">
         <v>36</v>
@@ -8714,7 +8759,7 @@
         <v>36</v>
       </c>
       <c r="X15" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="Y15" t="s">
         <v>36</v>
@@ -8738,7 +8783,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="AG15" t="s">
         <v>36</v>
@@ -8765,19 +8810,19 @@
         <v>37</v>
       </c>
       <c r="AO15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AP15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AQ15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AR15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AS15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AT15" t="s">
         <v>36</v>
@@ -8789,7 +8834,7 @@
         <v>36</v>
       </c>
       <c r="AW15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AX15" t="s">
         <v>36</v>
@@ -8894,149 +8939,149 @@
         <v>36</v>
       </c>
       <c r="CF15" t="s">
+        <v>342</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU15" t="s">
         <v>345</v>
       </c>
-      <c r="CG15" t="s">
+      <c r="DV15" t="s">
         <v>346</v>
       </c>
-      <c r="CH15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI15">
-        <v>10000</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>309</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>55</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU15" t="s">
+      <c r="DW15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY15" t="s">
         <v>347</v>
       </c>
-      <c r="DV15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX15" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY15" t="s">
+      <c r="DZ15" t="s">
+        <v>328</v>
+      </c>
+      <c r="EA15" t="s">
         <v>348</v>
       </c>
-      <c r="DZ15" t="s">
-        <v>349</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>285</v>
-      </c>
       <c r="EB15" t="s">
         <v>36</v>
       </c>
@@ -9083,19 +9128,19 @@
         <v>36</v>
       </c>
       <c r="EQ15" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="ER15" t="s">
         <v>36</v>
       </c>
       <c r="ES15" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="ET15" t="s">
         <v>36</v>
       </c>
       <c r="EU15" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="EV15" t="s">
         <v>36</v>
@@ -9115,7 +9160,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -9136,7 +9181,7 @@
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
         <v>36</v>
@@ -9172,7 +9217,7 @@
         <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s">
         <v>36</v>
@@ -9324,8 +9369,8 @@
       <c r="BS16" t="s">
         <v>36</v>
       </c>
-      <c r="BT16">
-        <v>111.28</v>
+      <c r="BT16" t="s">
+        <v>36</v>
       </c>
       <c r="BU16" t="s">
         <v>36</v>
@@ -9361,16 +9406,16 @@
         <v>36</v>
       </c>
       <c r="CF16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="CG16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="CH16" t="s">
         <v>36</v>
       </c>
       <c r="CI16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CJ16" t="s">
         <v>36</v>
@@ -9400,7 +9445,7 @@
         <v>36</v>
       </c>
       <c r="CS16" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT16" t="s">
         <v>36</v>
@@ -9478,7 +9523,7 @@
         <v>36</v>
       </c>
       <c r="DS16" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT16" t="s">
         <v>36</v>
@@ -9511,7 +9556,7 @@
         <v>36</v>
       </c>
       <c r="ED16" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="EE16" t="s">
         <v>36</v>
@@ -9538,7 +9583,7 @@
         <v>36</v>
       </c>
       <c r="EM16" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="EN16" t="s">
         <v>36</v>
@@ -9550,13 +9595,13 @@
         <v>36</v>
       </c>
       <c r="EQ16" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="ER16" t="s">
         <v>36</v>
       </c>
       <c r="ES16" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="ET16" t="s">
         <v>36</v>
@@ -9582,7 +9627,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -9603,7 +9648,7 @@
         <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
         <v>36</v>
@@ -9639,7 +9684,7 @@
         <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V17" t="s">
         <v>36</v>
@@ -9791,8 +9836,8 @@
       <c r="BS17" t="s">
         <v>36</v>
       </c>
-      <c r="BT17">
-        <v>108.13</v>
+      <c r="BT17" t="s">
+        <v>36</v>
       </c>
       <c r="BU17" t="s">
         <v>36</v>
@@ -9828,16 +9873,16 @@
         <v>36</v>
       </c>
       <c r="CF17" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="CG17" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="CH17" t="s">
         <v>36</v>
       </c>
       <c r="CI17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CJ17" t="s">
         <v>36</v>
@@ -9867,7 +9912,7 @@
         <v>36</v>
       </c>
       <c r="CS17" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT17" t="s">
         <v>36</v>
@@ -9945,7 +9990,7 @@
         <v>36</v>
       </c>
       <c r="DS17" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT17" t="s">
         <v>36</v>
@@ -9978,7 +10023,7 @@
         <v>36</v>
       </c>
       <c r="ED17" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="EE17" t="s">
         <v>36</v>
@@ -10005,7 +10050,7 @@
         <v>36</v>
       </c>
       <c r="EM17" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="EN17" t="s">
         <v>36</v>
@@ -10017,13 +10062,13 @@
         <v>36</v>
       </c>
       <c r="EQ17" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="ER17" t="s">
         <v>36</v>
       </c>
       <c r="ES17" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="ET17" t="s">
         <v>36</v>
@@ -10049,7 +10094,7 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -10070,7 +10115,7 @@
         <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
         <v>36</v>
@@ -10106,7 +10151,7 @@
         <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s">
         <v>36</v>
@@ -10258,8 +10303,8 @@
       <c r="BS18" t="s">
         <v>36</v>
       </c>
-      <c r="BT18">
-        <v>115.88</v>
+      <c r="BT18" t="s">
+        <v>36</v>
       </c>
       <c r="BU18" t="s">
         <v>36</v>
@@ -10304,7 +10349,7 @@
         <v>36</v>
       </c>
       <c r="CI18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CJ18" t="s">
         <v>36</v>
@@ -10334,7 +10379,7 @@
         <v>36</v>
       </c>
       <c r="CS18" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT18" t="s">
         <v>36</v>
@@ -10412,7 +10457,7 @@
         <v>36</v>
       </c>
       <c r="DS18" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT18" t="s">
         <v>36</v>
@@ -10445,7 +10490,7 @@
         <v>36</v>
       </c>
       <c r="ED18" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="EE18" t="s">
         <v>36</v>
@@ -10472,7 +10517,7 @@
         <v>36</v>
       </c>
       <c r="EM18" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="EN18" t="s">
         <v>36</v>
@@ -10484,13 +10529,13 @@
         <v>36</v>
       </c>
       <c r="EQ18" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="ER18" t="s">
         <v>36</v>
       </c>
       <c r="ES18" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="ET18" t="s">
         <v>36</v>
@@ -10516,7 +10561,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -10537,7 +10582,7 @@
         <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
@@ -10573,7 +10618,7 @@
         <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s">
         <v>36</v>
@@ -10725,8 +10770,8 @@
       <c r="BS19" t="s">
         <v>36</v>
       </c>
-      <c r="BT19">
-        <v>115.85</v>
+      <c r="BT19" t="s">
+        <v>36</v>
       </c>
       <c r="BU19" t="s">
         <v>36</v>
@@ -10762,16 +10807,16 @@
         <v>36</v>
       </c>
       <c r="CF19" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CG19" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CH19" t="s">
         <v>36</v>
       </c>
       <c r="CI19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CJ19" t="s">
         <v>36</v>
@@ -10801,7 +10846,7 @@
         <v>36</v>
       </c>
       <c r="CS19" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT19" t="s">
         <v>36</v>
@@ -10879,7 +10924,7 @@
         <v>36</v>
       </c>
       <c r="DS19" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT19" t="s">
         <v>36</v>
@@ -10912,7 +10957,7 @@
         <v>36</v>
       </c>
       <c r="ED19" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="EE19" t="s">
         <v>36</v>
@@ -10939,7 +10984,7 @@
         <v>36</v>
       </c>
       <c r="EM19" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="EN19" t="s">
         <v>36</v>
@@ -10951,13 +10996,13 @@
         <v>36</v>
       </c>
       <c r="EQ19" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="ER19" t="s">
         <v>36</v>
       </c>
       <c r="ES19" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="ET19" t="s">
         <v>36</v>
@@ -10983,7 +11028,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -11004,7 +11049,7 @@
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
         <v>36</v>
@@ -11040,7 +11085,7 @@
         <v>36</v>
       </c>
       <c r="U20" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V20" t="s">
         <v>36</v>
@@ -11192,8 +11237,8 @@
       <c r="BS20" t="s">
         <v>36</v>
       </c>
-      <c r="BT20">
-        <v>100.48</v>
+      <c r="BT20" t="s">
+        <v>36</v>
       </c>
       <c r="BU20" t="s">
         <v>36</v>
@@ -11229,16 +11274,16 @@
         <v>36</v>
       </c>
       <c r="CF20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="CG20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="CH20" t="s">
         <v>36</v>
       </c>
       <c r="CI20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CJ20" t="s">
         <v>36</v>
@@ -11268,7 +11313,7 @@
         <v>36</v>
       </c>
       <c r="CS20" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT20" t="s">
         <v>36</v>
@@ -11346,13 +11391,13 @@
         <v>36</v>
       </c>
       <c r="DS20" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT20" t="s">
         <v>36</v>
       </c>
       <c r="DU20" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="DV20" t="s">
         <v>36</v>
@@ -11379,7 +11424,7 @@
         <v>36</v>
       </c>
       <c r="ED20" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="EE20" t="s">
         <v>36</v>
@@ -11406,7 +11451,7 @@
         <v>36</v>
       </c>
       <c r="EM20" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="EN20" t="s">
         <v>36</v>
@@ -11418,13 +11463,13 @@
         <v>36</v>
       </c>
       <c r="EQ20" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="ER20" t="s">
         <v>36</v>
       </c>
       <c r="ES20" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="ET20" t="s">
         <v>36</v>
@@ -11450,7 +11495,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -11471,7 +11516,7 @@
         <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
         <v>36</v>
@@ -11507,7 +11552,7 @@
         <v>36</v>
       </c>
       <c r="U21" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -11659,8 +11704,8 @@
       <c r="BS21" t="s">
         <v>36</v>
       </c>
-      <c r="BT21">
-        <v>87.77</v>
+      <c r="BT21" t="s">
+        <v>36</v>
       </c>
       <c r="BU21" t="s">
         <v>36</v>
@@ -11696,16 +11741,16 @@
         <v>36</v>
       </c>
       <c r="CF21" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="CG21" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="CH21" t="s">
         <v>36</v>
       </c>
       <c r="CI21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CJ21" t="s">
         <v>36</v>
@@ -11735,7 +11780,7 @@
         <v>36</v>
       </c>
       <c r="CS21" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT21" t="s">
         <v>36</v>
@@ -11813,13 +11858,13 @@
         <v>36</v>
       </c>
       <c r="DS21" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT21" t="s">
         <v>36</v>
       </c>
       <c r="DU21" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="DV21" t="s">
         <v>36</v>
@@ -11837,7 +11882,7 @@
         <v>328</v>
       </c>
       <c r="EA21" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="EB21" t="s">
         <v>36</v>
@@ -11846,7 +11891,7 @@
         <v>36</v>
       </c>
       <c r="ED21" t="s">
-        <v>375</v>
+        <v>36</v>
       </c>
       <c r="EE21" t="s">
         <v>36</v>
@@ -11873,7 +11918,7 @@
         <v>36</v>
       </c>
       <c r="EM21" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="EN21" t="s">
         <v>36</v>
@@ -11885,13 +11930,13 @@
         <v>36</v>
       </c>
       <c r="EQ21" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="ER21" t="s">
         <v>36</v>
       </c>
       <c r="ES21" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="ET21" t="s">
         <v>36</v>
@@ -11917,10 +11962,10 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -11932,13 +11977,13 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="J22" t="s">
         <v>36</v>
@@ -11968,13 +12013,13 @@
         <v>36</v>
       </c>
       <c r="S22" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="T22" t="s">
         <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s">
         <v>36</v>
@@ -11983,7 +12028,7 @@
         <v>36</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
         <v>36</v>
@@ -12007,7 +12052,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s">
         <v>36</v>
@@ -12034,19 +12079,19 @@
         <v>37</v>
       </c>
       <c r="AO22" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AP22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AQ22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AR22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AS22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AT22" t="s">
         <v>36</v>
@@ -12058,7 +12103,7 @@
         <v>36</v>
       </c>
       <c r="AW22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AX22" t="s">
         <v>36</v>
@@ -12126,8 +12171,8 @@
       <c r="BS22" t="s">
         <v>36</v>
       </c>
-      <c r="BT22">
-        <v>100.99</v>
+      <c r="BT22" t="s">
+        <v>36</v>
       </c>
       <c r="BU22" t="s">
         <v>36</v>
@@ -12163,16 +12208,16 @@
         <v>36</v>
       </c>
       <c r="CF22" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="CG22" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="CH22" t="s">
         <v>36</v>
       </c>
       <c r="CI22">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="CJ22" t="s">
         <v>36</v>
@@ -12202,7 +12247,7 @@
         <v>36</v>
       </c>
       <c r="CS22" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="CT22" t="s">
         <v>36</v>
@@ -12217,7 +12262,7 @@
         <v>36</v>
       </c>
       <c r="CX22" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="CY22" t="s">
         <v>36</v>
@@ -12280,7 +12325,7 @@
         <v>36</v>
       </c>
       <c r="DS22" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="DT22" t="s">
         <v>36</v>
@@ -12298,13 +12343,13 @@
         <v>36</v>
       </c>
       <c r="DY22" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="DZ22" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="EA22" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="EB22" t="s">
         <v>36</v>
@@ -12313,58 +12358,58 @@
         <v>36</v>
       </c>
       <c r="ED22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ22" t="s">
+        <v>373</v>
+      </c>
+      <c r="ER22" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES22" t="s">
+        <v>374</v>
+      </c>
+      <c r="ET22" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU22" t="s">
         <v>375</v>
-      </c>
-      <c r="EE22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EG22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM22" t="s">
-        <v>354</v>
-      </c>
-      <c r="EN22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ22" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER22" t="s">
-        <v>36</v>
-      </c>
-      <c r="ES22" t="s">
-        <v>359</v>
-      </c>
-      <c r="ET22" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU22" t="s">
-        <v>238</v>
       </c>
       <c r="EV22" t="s">
         <v>36</v>
@@ -12384,7 +12429,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -12441,7 +12486,7 @@
         <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="V23" t="s">
         <v>36</v>
@@ -12594,7 +12639,7 @@
         <v>36</v>
       </c>
       <c r="BT23">
-        <v>95.95</v>
+        <v>111.28</v>
       </c>
       <c r="BU23" t="s">
         <v>36</v>
@@ -12630,10 +12675,10 @@
         <v>36</v>
       </c>
       <c r="CF23" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="CG23" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="CH23" t="s">
         <v>36</v>
@@ -12747,13 +12792,13 @@
         <v>36</v>
       </c>
       <c r="DS23" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="DT23" t="s">
         <v>36</v>
       </c>
       <c r="DU23" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="DV23" t="s">
         <v>36</v>
@@ -12771,7 +12816,7 @@
         <v>328</v>
       </c>
       <c r="EA23" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="EB23" t="s">
         <v>36</v>
@@ -12780,7 +12825,7 @@
         <v>36</v>
       </c>
       <c r="ED23" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="EE23" t="s">
         <v>36</v>
@@ -12807,7 +12852,7 @@
         <v>36</v>
       </c>
       <c r="EM23" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="EN23" t="s">
         <v>36</v>
@@ -12825,7 +12870,7 @@
         <v>36</v>
       </c>
       <c r="ES23" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="ET23" t="s">
         <v>36</v>
@@ -12851,7 +12896,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -12908,7 +12953,7 @@
         <v>36</v>
       </c>
       <c r="U24" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="V24" t="s">
         <v>36</v>
@@ -13061,7 +13106,7 @@
         <v>36</v>
       </c>
       <c r="BT24">
-        <v>99.96</v>
+        <v>108.13</v>
       </c>
       <c r="BU24" t="s">
         <v>36</v>
@@ -13097,10 +13142,10 @@
         <v>36</v>
       </c>
       <c r="CF24" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="CG24" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="CH24" t="s">
         <v>36</v>
@@ -13214,7 +13259,7 @@
         <v>36</v>
       </c>
       <c r="DS24" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="DT24" t="s">
         <v>36</v>
@@ -13247,7 +13292,7 @@
         <v>36</v>
       </c>
       <c r="ED24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="EE24" t="s">
         <v>36</v>
@@ -13274,7 +13319,7 @@
         <v>36</v>
       </c>
       <c r="EM24" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="EN24" t="s">
         <v>36</v>
@@ -13292,7 +13337,7 @@
         <v>36</v>
       </c>
       <c r="ES24" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="ET24" t="s">
         <v>36</v>
@@ -13318,7 +13363,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -13339,7 +13384,7 @@
         <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
         <v>36</v>
@@ -13375,7 +13420,7 @@
         <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="V25" t="s">
         <v>36</v>
@@ -13528,7 +13573,7 @@
         <v>36</v>
       </c>
       <c r="BT25">
-        <v>104.46</v>
+        <v>115.88</v>
       </c>
       <c r="BU25" t="s">
         <v>36</v>
@@ -13564,10 +13609,10 @@
         <v>36</v>
       </c>
       <c r="CF25" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="CG25" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="CH25" t="s">
         <v>36</v>
@@ -13681,13 +13726,13 @@
         <v>36</v>
       </c>
       <c r="DS25" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="DT25" t="s">
         <v>36</v>
       </c>
       <c r="DU25" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="DV25" t="s">
         <v>36</v>
@@ -13699,13 +13744,13 @@
         <v>36</v>
       </c>
       <c r="DY25" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="DZ25" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="EA25" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="EB25" t="s">
         <v>36</v>
@@ -13714,7 +13759,7 @@
         <v>36</v>
       </c>
       <c r="ED25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="EE25" t="s">
         <v>36</v>
@@ -13741,7 +13786,7 @@
         <v>36</v>
       </c>
       <c r="EM25" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="EN25" t="s">
         <v>36</v>
@@ -13759,7 +13804,7 @@
         <v>36</v>
       </c>
       <c r="ES25" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="ET25" t="s">
         <v>36</v>
@@ -13785,7 +13830,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -13842,7 +13887,7 @@
         <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="V26" t="s">
         <v>36</v>
@@ -13995,7 +14040,7 @@
         <v>36</v>
       </c>
       <c r="BT26">
-        <v>98.17</v>
+        <v>115.85</v>
       </c>
       <c r="BU26" t="s">
         <v>36</v>
@@ -14031,10 +14076,10 @@
         <v>36</v>
       </c>
       <c r="CF26" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="CG26" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="CH26" t="s">
         <v>36</v>
@@ -14148,13 +14193,13 @@
         <v>36</v>
       </c>
       <c r="DS26" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="DT26" t="s">
         <v>36</v>
       </c>
       <c r="DU26" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="DV26" t="s">
         <v>36</v>
@@ -14166,13 +14211,13 @@
         <v>36</v>
       </c>
       <c r="DY26" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="DZ26" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="EA26" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="EB26" t="s">
         <v>36</v>
@@ -14181,7 +14226,7 @@
         <v>36</v>
       </c>
       <c r="ED26" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="EE26" t="s">
         <v>36</v>
@@ -14208,7 +14253,7 @@
         <v>36</v>
       </c>
       <c r="EM26" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="EN26" t="s">
         <v>36</v>
@@ -14226,7 +14271,7 @@
         <v>36</v>
       </c>
       <c r="ES26" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="ET26" t="s">
         <v>36</v>
@@ -14244,6 +14289,3275 @@
         <v>36</v>
       </c>
       <c r="EY26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>269</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>220</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>221</v>
+      </c>
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s">
+        <v>377</v>
+      </c>
+      <c r="V27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT27">
+        <v>100.48</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>385</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI27">
+        <v>1</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS27" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU27" t="s">
+        <v>362</v>
+      </c>
+      <c r="DV27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>327</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>328</v>
+      </c>
+      <c r="EA27" t="s">
+        <v>313</v>
+      </c>
+      <c r="EB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC27" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED27" t="s">
+        <v>387</v>
+      </c>
+      <c r="EE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM27" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER27" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES27" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU27" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX27" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>220</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T28" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s">
+        <v>377</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT28">
+        <v>87.77</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>390</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI28">
+        <v>1</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS28" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU28" t="s">
+        <v>362</v>
+      </c>
+      <c r="DV28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>327</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>328</v>
+      </c>
+      <c r="EA28" t="s">
+        <v>313</v>
+      </c>
+      <c r="EB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC28" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED28" t="s">
+        <v>391</v>
+      </c>
+      <c r="EE28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM28" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ28" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER28" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES28" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU28" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX28" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" t="s">
+        <v>221</v>
+      </c>
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s">
+        <v>377</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT29">
+        <v>100.99</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>393</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>394</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI29">
+        <v>1</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY29" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS29" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU29" t="s">
+        <v>362</v>
+      </c>
+      <c r="DV29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX29" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>327</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>328</v>
+      </c>
+      <c r="EA29" t="s">
+        <v>313</v>
+      </c>
+      <c r="EB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC29" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED29" t="s">
+        <v>391</v>
+      </c>
+      <c r="EE29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM29" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER29" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES29" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU29" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX29" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" t="s">
+        <v>221</v>
+      </c>
+      <c r="T30" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" t="s">
+        <v>377</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT30">
+        <v>95.95</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>360</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>396</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI30">
+        <v>1</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY30" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS30" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU30" t="s">
+        <v>362</v>
+      </c>
+      <c r="DV30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX30" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY30" t="s">
+        <v>327</v>
+      </c>
+      <c r="DZ30" t="s">
+        <v>328</v>
+      </c>
+      <c r="EA30" t="s">
+        <v>313</v>
+      </c>
+      <c r="EB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC30" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED30" t="s">
+        <v>391</v>
+      </c>
+      <c r="EE30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM30" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ30" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER30" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES30" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU30" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX30" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s">
+        <v>221</v>
+      </c>
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s">
+        <v>377</v>
+      </c>
+      <c r="V31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT31">
+        <v>99.96</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>331</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI31">
+        <v>1</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY31" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS31" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU31" t="s">
+        <v>325</v>
+      </c>
+      <c r="DV31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX31" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY31" t="s">
+        <v>327</v>
+      </c>
+      <c r="DZ31" t="s">
+        <v>328</v>
+      </c>
+      <c r="EA31" t="s">
+        <v>329</v>
+      </c>
+      <c r="EB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC31" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED31" t="s">
+        <v>398</v>
+      </c>
+      <c r="EE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM31" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER31" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES31" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU31" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX31" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>220</v>
+      </c>
+      <c r="P32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s">
+        <v>221</v>
+      </c>
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s">
+        <v>377</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT32">
+        <v>104.46</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>400</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI32">
+        <v>1</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>337</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>339</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>321</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>340</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>402</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s">
+        <v>377</v>
+      </c>
+      <c r="V33" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT33">
+        <v>98.17</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI33">
+        <v>1</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS33" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>337</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>339</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>321</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>340</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED33" t="s">
+        <v>406</v>
+      </c>
+      <c r="EE33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ33" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER33" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES33" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU33" t="s">
+        <v>238</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX33" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14263,10 +17577,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
